--- a/result_tabular_files/1273/Description of sheets.xlsx
+++ b/result_tabular_files/1273/Description of sheets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="20A_20B" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -83,37 +83,44 @@
     <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and generated sequences using 20A from test data</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_20B_AL20F20D21H_pos_subs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store the positional frequency of substitutions beween clades 20B and Alpha, Lambda, 20D, 20F and 21H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and 20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_wu_AL20F20D21H_pos_subs</t>
+    <t xml:space="preserve">Orginal reference</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and </t>
+      <t xml:space="preserve">NCBI Reference Sequence: YP_009724390.1
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Alpha, Lambda, 20D, 20F and 21H</t>
+      <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/protein/YP_009724390.1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_20B_AL20F20D21H_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween clades 20B and Alpha, Lambda, 20D, 20F and 21H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and 20B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_wu_AL20F20D21H_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and Alpha, Lambda, 20D, 20F and 21H</t>
   </si>
   <si>
     <t xml:space="preserve">gen_20B_gen_pos_subs</t>
@@ -162,6 +169,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Serif"/>
       <family val="1"/>
       <charset val="1"/>
@@ -172,12 +186,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,16 +230,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,16 +264,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="143.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -340,7 +352,18 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/YP_009724390.1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -356,95 +379,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="124.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="50.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="124.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/protein/YP_009724390.1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
